--- a/guru/data_kuesioner.xlsx
+++ b/guru/data_kuesioner.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="34">
   <si>
     <t>Nama</t>
   </si>
@@ -92,55 +92,31 @@
     <t>lorem</t>
   </si>
   <si>
-    <t>2007-09-05</t>
+    <t>9999-09-09</t>
   </si>
   <si>
     <t>Laki-laki</t>
   </si>
   <si>
-    <t>Informatika(TIK)</t>
+    <t>Ilmu Pengetahuan Sosial</t>
+  </si>
+  <si>
+    <t>Matematika</t>
   </si>
   <si>
     <t>Pengembangan Perangkat Lunak dan Gim</t>
   </si>
   <si>
-    <t>Kuliah</t>
-  </si>
-  <si>
-    <t>auditori</t>
-  </si>
-  <si>
-    <t>Conscientiousness</t>
-  </si>
-  <si>
-    <t>Tidak dapat menentukan kecerdasan utama</t>
-  </si>
-  <si>
-    <t>Testing</t>
-  </si>
-  <si>
-    <t>9999-09-09</t>
-  </si>
-  <si>
-    <t>Matematika</t>
-  </si>
-  <si>
-    <t>Lainnya</t>
-  </si>
-  <si>
-    <t>Teknik Furnitur</t>
-  </si>
-  <si>
-    <t>Wirausaha</t>
-  </si>
-  <si>
-    <t>0111-11-11</t>
-  </si>
-  <si>
-    <t>Pekerjaan Sosial</t>
-  </si>
-  <si>
-    <t>&lt;a href="minatBelajar.php" class="btn btn-primary fw-medium shadow-sm"&gt;Tes Kecerdasan&lt;/a&gt;</t>
+    <t>Bekerja</t>
+  </si>
+  <si>
+    <t>kinestetik</t>
+  </si>
+  <si>
+    <t>Influence</t>
+  </si>
+  <si>
+    <t>Kecerdasan Linguistik</t>
   </si>
 </sst>
 </file>
@@ -498,7 +474,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:X4"/>
+  <dimension ref="A1:X2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="X1" sqref="X1"/>
@@ -615,7 +591,7 @@
         <v>111</v>
       </c>
       <c r="L2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="M2">
         <v>111</v>
@@ -633,170 +609,26 @@
         <v>24</v>
       </c>
       <c r="R2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="S2" t="s">
         <v>24</v>
       </c>
       <c r="T2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="U2" t="s">
         <v>24</v>
       </c>
       <c r="V2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="W2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="X2" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="3" spans="1:24">
-      <c r="A3" t="s">
         <v>33</v>
       </c>
-      <c r="B3" t="s">
-        <v>33</v>
-      </c>
-      <c r="C3" t="s">
-        <v>34</v>
-      </c>
-      <c r="D3" t="s">
-        <v>26</v>
-      </c>
-      <c r="E3" t="s">
-        <v>33</v>
-      </c>
-      <c r="F3" t="s">
-        <v>33</v>
-      </c>
-      <c r="G3">
-        <v>111</v>
-      </c>
-      <c r="H3">
-        <v>111</v>
-      </c>
-      <c r="I3">
-        <v>111</v>
-      </c>
-      <c r="J3" t="s">
-        <v>35</v>
-      </c>
-      <c r="K3">
-        <v>111</v>
-      </c>
-      <c r="L3" t="s">
-        <v>36</v>
-      </c>
-      <c r="M3">
-        <v>111</v>
-      </c>
-      <c r="N3" t="s">
-        <v>33</v>
-      </c>
-      <c r="O3" t="s">
-        <v>33</v>
-      </c>
-      <c r="P3" t="s">
-        <v>33</v>
-      </c>
-      <c r="Q3" t="s">
-        <v>33</v>
-      </c>
-      <c r="R3" t="s">
-        <v>37</v>
-      </c>
-      <c r="S3" t="s">
-        <v>33</v>
-      </c>
-      <c r="T3" t="s">
-        <v>38</v>
-      </c>
-      <c r="U3" t="s">
-        <v>33</v>
-      </c>
-      <c r="V3" t="s">
-        <v>30</v>
-      </c>
-      <c r="W3" t="s">
-        <v>31</v>
-      </c>
-      <c r="X3" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="4" spans="1:24">
-      <c r="A4" t="s">
-        <v>33</v>
-      </c>
-      <c r="B4" t="s">
-        <v>33</v>
-      </c>
-      <c r="C4" t="s">
-        <v>39</v>
-      </c>
-      <c r="D4" t="s">
-        <v>26</v>
-      </c>
-      <c r="E4" t="s">
-        <v>33</v>
-      </c>
-      <c r="F4" t="s">
-        <v>33</v>
-      </c>
-      <c r="G4">
-        <v>111</v>
-      </c>
-      <c r="H4">
-        <v>111</v>
-      </c>
-      <c r="I4">
-        <v>111</v>
-      </c>
-      <c r="J4" t="s">
-        <v>35</v>
-      </c>
-      <c r="K4">
-        <v>111</v>
-      </c>
-      <c r="L4" t="s">
-        <v>35</v>
-      </c>
-      <c r="M4">
-        <v>111</v>
-      </c>
-      <c r="N4" t="s">
-        <v>33</v>
-      </c>
-      <c r="O4" t="s">
-        <v>33</v>
-      </c>
-      <c r="P4" t="s">
-        <v>33</v>
-      </c>
-      <c r="Q4" t="s">
-        <v>33</v>
-      </c>
-      <c r="R4" t="s">
-        <v>40</v>
-      </c>
-      <c r="S4" t="s">
-        <v>33</v>
-      </c>
-      <c r="T4" t="s">
-        <v>29</v>
-      </c>
-      <c r="U4" t="s">
-        <v>33</v>
-      </c>
-      <c r="V4"/>
-      <c r="W4" t="s">
-        <v>41</v>
-      </c>
-      <c r="X4"/>
     </row>
   </sheetData>
   <printOptions gridLines="false" gridLinesSet="true"/>
